--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T10:53:52+10:00</t>
+    <t>2024-05-15T12:58:39+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T12:58:39+10:00</t>
+    <t>2024-05-15T15:51:17+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:51:17+10:00</t>
+    <t>2024-05-16T11:47:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,6 +472,13 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -485,6 +492,257 @@
     <t>Identifier</t>
   </si>
   <si>
+    <t>Organization.identifier:AUHPIO</t>
+  </si>
+  <si>
+    <t>AUHPIO</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://ns.electronichealth.net.au/id/hi/hpio/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier:AUHPIO.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -523,10 +781,6 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Kind of organization</t>
   </si>
   <si>
@@ -548,17 +802,10 @@
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name used for the organization</t>
@@ -673,10 +920,6 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>The organization of which this organization forms a part</t>
   </si>
   <si>
@@ -714,22 +957,7 @@
     <t>Organization.contact.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
@@ -759,9 +987,6 @@
   </si>
   <si>
     <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://terminology.hl7.org.au/ValueSet/contact-purpose</t>
@@ -1155,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1164,7 +1389,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1183,16 +1408,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="78.0859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2370,7 +2595,7 @@
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
@@ -2426,16 +2651,14 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>141</v>
@@ -2447,19 +2670,19 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>74</v>
@@ -2467,18 +2690,20 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2487,32 +2712,28 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2556,39 +2777,39 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2599,7 +2820,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2608,23 +2829,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2648,11 +2865,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -2676,69 +2895,67 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2774,40 +2991,40 @@
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -2815,10 +3032,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2829,31 +3046,31 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2878,13 +3095,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2902,13 +3119,13 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
@@ -2917,7 +3134,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>180</v>
@@ -2931,10 +3148,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2945,7 +3162,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2954,22 +3171,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -2994,13 +3211,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3018,28 +3235,28 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3047,10 +3264,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3058,10 +3275,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3070,35 +3287,35 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3134,28 +3351,28 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3163,10 +3380,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3189,18 +3406,18 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3212,7 +3429,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3248,7 +3465,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3263,13 +3480,13 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3277,10 +3494,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3291,7 +3508,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3300,23 +3517,19 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O19" t="s" s="2">
         <v>219</v>
       </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3364,13 +3577,13 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
@@ -3379,13 +3592,13 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3393,10 +3606,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3416,18 +3629,20 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3476,7 +3691,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3488,16 +3703,16 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3505,48 +3720,52 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3590,43 +3809,43 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3639,25 +3858,25 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3682,13 +3901,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3706,7 +3923,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3718,27 +3935,27 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3746,32 +3963,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3796,11 +4015,13 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3818,7 +4039,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3827,19 +4048,19 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -3847,10 +4068,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3861,7 +4082,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3873,17 +4094,19 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -3932,13 +4155,13 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
@@ -3947,10 +4170,10 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -3961,10 +4184,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3987,17 +4210,19 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4046,7 +4271,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4055,19 +4280,19 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4075,10 +4300,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4089,7 +4314,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4101,17 +4326,19 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4160,28 +4387,28 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4189,10 +4416,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4203,7 +4430,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4212,20 +4439,20 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4274,13 +4501,13 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
@@ -4289,20 +4516,1046 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN27">
+  <autoFilter ref="A1:AN36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4312,7 +5565,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:47:37+10:00</t>
+    <t>2024-05-20T09:59:48+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,11 +472,11 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">profile:system}
 </t>
   </si>
   <si>
-    <t>openAtEnd</t>
+    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -542,9 +542,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -888,24 +885,24 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {Address|http://hl7.org.au/fhir/StructureDefinition/au-address}
+    <t xml:space="preserve">Address {http://hl7.org.au/fhir/StructureDefinition/au-address}
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
+    <t>An address in Australia for use within an Australian healthcare context</t>
+  </si>
+  <si>
+    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+inv-add-0:The address shall at least have text or a line {text.exists() or line.exists()}inv-add-1:If asserting no fixed address, the type shall be 'physical' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies type='physical'}inv-add-2:If asserting no fixed address, the address text shall begin with 'NO FIXED ADDRESS' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies text.startsWith('NO FIXED ADDRESS')}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>XAD</t>
@@ -3000,10 +2997,10 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3032,10 +3029,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3061,16 +3058,16 @@
         <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3095,31 +3092,31 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3137,7 +3134,7 @@
         <v>127</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3148,10 +3145,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3174,19 +3171,19 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3211,31 +3208,31 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3250,10 +3247,10 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3264,10 +3261,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3275,7 +3272,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
@@ -3293,65 +3290,65 @@
         <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T17" t="s" s="2">
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3366,13 +3363,13 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3380,10 +3377,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3409,13 +3406,13 @@
         <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3429,43 +3426,43 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3480,13 +3477,13 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3494,10 +3491,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3520,13 +3517,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3577,7 +3574,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3592,13 +3589,13 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3606,10 +3603,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3632,16 +3629,16 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3691,7 +3688,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3706,13 +3703,13 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3720,10 +3717,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3746,26 +3743,26 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="O21" t="s" s="2">
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3809,7 +3806,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3824,24 +3821,24 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3864,19 +3861,19 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3905,7 +3902,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3923,7 +3920,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3938,24 +3935,24 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3981,16 +3978,16 @@
         <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4039,7 +4036,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4048,19 +4045,19 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4068,10 +4065,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4097,16 +4094,16 @@
         <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4155,7 +4152,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4173,7 +4170,7 @@
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4184,10 +4181,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4210,19 +4207,19 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4271,7 +4268,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4280,19 +4277,19 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4300,10 +4297,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4326,19 +4323,19 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4387,7 +4384,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4399,16 +4396,16 @@
         <v>148</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4416,10 +4413,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4442,17 +4439,17 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4501,7 +4498,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4516,10 +4513,10 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>162</v>
@@ -4530,10 +4527,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4556,19 +4553,19 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4617,7 +4614,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4635,7 +4632,7 @@
         <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4646,10 +4643,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4758,10 +4755,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4843,7 +4840,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4872,14 +4869,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4901,10 +4898,10 @@
         <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>133</v>
@@ -4959,7 +4956,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4988,10 +4985,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5014,17 +5011,17 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5049,11 +5046,11 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5071,7 +5068,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5089,7 +5086,7 @@
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5100,10 +5097,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5126,17 +5123,17 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5185,7 +5182,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5200,10 +5197,10 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5214,10 +5211,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5240,17 +5237,17 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5299,7 +5296,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5314,10 +5311,10 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5328,10 +5325,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5354,17 +5351,17 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5413,7 +5410,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5428,10 +5425,10 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5442,10 +5439,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5468,17 +5465,17 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5527,7 +5524,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T09:59:48+10:00</t>
+    <t>2024-05-20T12:15:26+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$27</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T12:15:26+10:00</t>
+    <t>2024-05-20T17:01:27+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Northern Australia Regional Digital Health Collaborative</t>
+    <t>D Foulkes - Northern Australia Regional Digital Health Collaborative</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Northern Australia Regional Digital Health Collaborative (https://nardhc.org)</t>
+    <t>D Foulkes - Northern Australia Regional Digital Health Collaborative (https://nardhc.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
   <si>
     <t>Description</t>
@@ -459,30 +465,27 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-hpio|http://hl7.org.au/fhir/StructureDefinition/au-paioidentifier|http://hl7.org.au/fhir/StructureDefinition/au-cspregistrationnumber|http://hl7.org.au/fhir/StructureDefinition/au-australianbusinessnumber|http://hl7.org.au/fhir/StructureDefinition/au-australiancompanynumber|http://hl7.org.au/fhir/StructureDefinition/au-australianregistredbodynumber|http://hl7.org.au/fhir/StructureDefinition/au-nataaccreditationnumber|http://hl7.org.au/fhir/StructureDefinition/au-pharmacyapprovalnumber}
+    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-hpio|http://hl7.org.au/fhir/StructureDefinition/au-paioidentifier}
 </t>
   </si>
   <si>
-    <t>Identifies this organization across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+    <t>Healthcare Provider Identifier – Organisation (HPI-O)</t>
+  </si>
+  <si>
+    <t>Healthcare Provider Identifier – Organisation (HPI-O) assigned under the HI Service to an organisation (such as a hospital or medical clinic) where healthcare is provided.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile:system}
-</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-hpio-0:HPI-O shall be 16 digits {value.matches('^([0-9]{16})$')}inv-hpio-1:HPI-O prefix shall be 800362 {value.startsWith('800362')}inv-hpio-2:HPI-O shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
+  </si>
+  <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
@@ -492,431 +495,198 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>Organization.identifier:AUHPIO</t>
-  </si>
-  <si>
-    <t>AUHPIO</t>
-  </si>
-  <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of organization</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>When selecting a code for Organization type, if a system is unable to provide a code from the preferred value set [Healthcare Organisation Role Type](https://healthterminologies.gov.au/fhir/ValueSet/healthcare-organisation-role-type-1) because the implementation context is not restricted to healthcare practitioner providers then it is recommended to select from the wider set available in SNOMED CT. If a suitable code from SNOMED CT is not available, a code from the code system [Australian and New Zealand Standard Industrial Classification (ANZSIC), 2006 (Revision 2.0)](https://www.healthterminologies.gov.au/integration/R4/fhir/CodeSystem/anzsic-2006-20130626) may be used.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/healthcare-organisation-role-type-1</t>
+  </si>
+  <si>
+    <t>No equivalent in v2</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Organization.name</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Name used for the organization</t>
+  </si>
+  <si>
+    <t>A name associated with the organization.</t>
+  </si>
+  <si>
+    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>Need to use the name as the label of the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>XON.1</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>.PreferredName/Name</t>
+  </si>
+  <si>
+    <t>Organization.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the organization was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Organization.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://ns.electronichealth.net.au/id/hi/hpio/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+  </si>
+  <si>
+    <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-3
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier:AUHPIO.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {http://hl7.org.au/fhir/StructureDefinition/au-address}
+</t>
+  </si>
+  <si>
+    <t>An address in Australia for use within an Australian healthcare context</t>
+  </si>
+  <si>
+    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-add-0:The address shall at least have text or a line {text.exists() or line.exists()}inv-add-1:If asserting no fixed address, the type shall be 'physical' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies type='physical'}inv-add-2:If asserting no fixed address, the address text shall begin with 'NO FIXED ADDRESS' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies text.startsWith('NO FIXED ADDRESS')}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Organization.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.</t>
-  </si>
-  <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
-This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>No equivalent in HL7 v2</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Organization.type</t>
-  </si>
-  <si>
-    <t>Kind of organization</t>
-  </si>
-  <si>
-    <t>The kind(s) of organization that this is.</t>
-  </si>
-  <si>
-    <t>When selecting a code for Organization type, if a system is unable to provide a code from the preferred value set [Healthcare Organisation Role Type](https://healthterminologies.gov.au/fhir/ValueSet/healthcare-organisation-role-type-1) because the implementation context is not restricted to healthcare practitioner providers then it is recommended to select from the wider set available in SNOMED CT. If a suitable code from SNOMED CT is not available, a code from the code system [Australian and New Zealand Standard Industrial Classification (ANZSIC), 2006 (Revision 2.0)](https://www.healthterminologies.gov.au/integration/R4/fhir/CodeSystem/anzsic-2006-20130626) may be used.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/healthcare-organisation-role-type-1</t>
-  </si>
-  <si>
-    <t>No equivalent in v2</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Organization.name</t>
-  </si>
-  <si>
-    <t>Name used for the organization</t>
-  </si>
-  <si>
-    <t>A name associated with the organization.</t>
-  </si>
-  <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>Need to use the name as the label of the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
-</t>
-  </si>
-  <si>
-    <t>XON.1</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>.PreferredName/Name</t>
-  </si>
-  <si>
-    <t>Organization.alias</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the organization was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>Organization.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
-  </si>
-  <si>
-    <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-3
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-22?</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Organization.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address {http://hl7.org.au/fhir/StructureDefinition/au-address}
-</t>
-  </si>
-  <si>
-    <t>An address in Australia for use within an Australian healthcare context</t>
-  </si>
-  <si>
-    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-add-0:The address shall at least have text or a line {text.exists() or line.exists()}inv-add-1:If asserting no fixed address, the type shall be 'physical' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies type='physical'}inv-add-2:If asserting no fixed address, the address text shall begin with 'NO FIXED ADDRESS' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies text.startsWith('NO FIXED ADDRESS')}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
     <t>The organization of which this organization forms a part</t>
   </si>
   <si>
@@ -954,7 +724,22 @@
     <t>Organization.contact.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
@@ -984,6 +769,9 @@
   </si>
   <si>
     <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://terminology.hl7.org.au/ValueSet/contact-purpose</t>
@@ -1216,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1314,21 +1102,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1368,6 +1156,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1386,7 +1182,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1396,7 +1192,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1405,16 +1201,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="78.0859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1429,4130 +1225,3102 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y32" s="2"/>
-      <c r="Z32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN36">
+  <autoFilter ref="A1:AN27">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5562,7 +4330,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T17:01:27+10:00</t>
+    <t>2024-05-21T11:55:01+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:55:01+10:00</t>
+    <t>2024-05-21T16:48:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/au-organization</t>
+    <t>http://hl7.org.au/fhir/core/StructureDefinition/au-core-organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -465,17 +465,57 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-hpio|http://hl7.org.au/fhir/StructureDefinition/au-paioidentifier}
+    <t xml:space="preserve">Identifier {Identifier|http://hl7.org.au/fhir/StructureDefinition/au-hpio|http://hl7.org.au/fhir/StructureDefinition/au-paioidentifier|http://hl7.org.au/fhir/StructureDefinition/au-cspregistrationnumber|http://hl7.org.au/fhir/StructureDefinition/au-australianbusinessnumber|http://hl7.org.au/fhir/StructureDefinition/au-australiancompanynumber|http://hl7.org.au/fhir/StructureDefinition/au-australianregistredbodynumber|http://hl7.org.au/fhir/StructureDefinition/au-nataaccreditationnumber|http://hl7.org.au/fhir/StructureDefinition/au-pharmacyapprovalnumber}
 </t>
   </si>
   <si>
+    <t>Identifies this organization across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>ele-1
+au-core-org-01</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+au-core-org-01:A National Organisation Identifier (type=NOI) shall be an HPI-O or PAI-O {where(type.coding.code = 'NOI').exists() implies (system='http://ns.electronichealth.net.au/id/hi/hpio/1.0') or (system='http://ns.electronichealth.net.au/id/pcehr/paio/1.0')}</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier:hpio</t>
+  </si>
+  <si>
+    <t>hpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-hpio}
+</t>
+  </si>
+  <si>
     <t>Healthcare Provider Identifier – Organisation (HPI-O)</t>
   </si>
   <si>
     <t>Healthcare Provider Identifier – Organisation (HPI-O) assigned under the HI Service to an organisation (such as a hospital or medical clinic) where healthcare is provided.</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -486,13 +526,44 @@
 inv-hpio-0:HPI-O shall be 16 digits {value.matches('^([0-9]{16})$')}inv-hpio-1:HPI-O prefix shall be 800362 {value.startsWith('800362')}inv-hpio-2:HPI-O shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
+    <t>Organization.identifier:abn</t>
+  </si>
+  <si>
+    <t>abn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-australianbusinessnumber}
+</t>
+  </si>
+  <si>
+    <t>Australian Business Number (ABN)</t>
+  </si>
+  <si>
+    <t>Australian Business Number (ABN) assigned by the Australian Securities and Investment Commission (ASIC) to an entity registered in the Australian Business Register (ABR).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-abn-0:ABN shall be 11 digits {value.matches('^([0-9]{11})$')}</t>
+  </si>
+  <si>
+    <t>Organization.identifier:paio</t>
+  </si>
+  <si>
+    <t>paio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-paioidentifier}
+</t>
+  </si>
+  <si>
+    <t>My Health Record Assigned Identity - Organisation (PAI-O) Identifier</t>
+  </si>
+  <si>
+    <t>My Health Record Assigned Identity - Organisation (PAI-O) identifier assigned to an organisation.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-paio-0:PAI-O shall be 16 digits {value.matches('^([0-9]{16})$')}inv-paio-1:PAI-O prefix shall be 800364 {value.startsWith('800364')}inv-paio-2:PAI-O shall pass the Luhn algorithm {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -518,6 +589,9 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>No equivalent in HL7 v2</t>
   </si>
   <si>
@@ -651,24 +725,24 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.org.au/fhir/StructureDefinition/au-address}
+    <t xml:space="preserve">Address {Address|http://hl7.org.au/fhir/StructureDefinition/au-address}
 </t>
   </si>
   <si>
-    <t>An address in Australia for use within an Australian healthcare context</t>
-  </si>
-  <si>
-    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-add-0:The address shall at least have text or a line {text.exists() or line.exists()}inv-add-1:If asserting no fixed address, the type shall be 'physical' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies type='physical'}inv-add-2:If asserting no fixed address, the address text shall begin with 'NO FIXED ADDRESS' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies text.startsWith('NO FIXED ADDRESS')}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>XAD</t>
@@ -1173,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1192,7 +1266,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.9375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2382,13 +2456,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -2444,16 +2518,14 @@
         <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>143</v>
@@ -2465,19 +2537,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>76</v>
@@ -2485,130 +2557,130 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2620,28 +2692,26 @@
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2666,11 +2736,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2688,7 +2760,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2697,38 +2769,40 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>86</v>
@@ -2740,22 +2814,20 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2804,28 +2876,28 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -2833,10 +2905,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2847,38 +2919,40 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>76</v>
@@ -2920,13 +2994,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -2935,24 +3009,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2966,28 +3040,28 @@
         <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3012,13 +3086,11 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3036,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3045,30 +3117,30 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3076,34 +3148,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3152,28 +3224,28 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3181,10 +3253,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3195,29 +3267,31 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3266,13 +3340,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3281,13 +3355,13 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3295,10 +3369,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3312,7 +3386,7 @@
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -3321,19 +3395,19 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3382,7 +3456,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3391,19 +3465,19 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3411,10 +3485,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3422,13 +3496,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
@@ -3437,7 +3511,7 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>225</v>
@@ -3445,8 +3519,12 @@
       <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3494,28 +3572,28 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3523,21 +3601,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3546,21 +3624,21 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3608,28 +3686,28 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3637,14 +3715,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3657,25 +3735,25 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3724,7 +3802,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3736,13 +3814,13 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3753,10 +3831,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3779,18 +3857,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3814,11 +3890,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3836,7 +3914,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3848,13 +3926,13 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3865,21 +3943,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3891,18 +3969,18 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3950,25 +4028,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3979,14 +4057,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3999,23 +4077,25 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4064,7 +4144,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4076,13 +4156,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4093,10 +4173,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4119,17 +4199,17 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4154,13 +4234,11 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4178,7 +4256,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4193,10 +4271,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4207,10 +4285,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4221,7 +4299,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4233,17 +4311,17 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4292,13 +4370,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4307,10 +4385,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4319,8 +4397,350 @@
         <v>76</v>
       </c>
     </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN27">
+  <autoFilter ref="A1:AN30">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4330,7 +4750,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$29</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="283">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T16:48:43+10:00</t>
+    <t>2024-05-23T13:27:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -546,26 +546,6 @@
 inv-abn-0:ABN shall be 11 digits {value.matches('^([0-9]{11})$')}</t>
   </si>
   <si>
-    <t>Organization.identifier:paio</t>
-  </si>
-  <si>
-    <t>paio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://hl7.org.au/fhir/StructureDefinition/au-paioidentifier}
-</t>
-  </si>
-  <si>
-    <t>My Health Record Assigned Identity - Organisation (PAI-O) Identifier</t>
-  </si>
-  <si>
-    <t>My Health Record Assigned Identity - Organisation (PAI-O) identifier assigned to an organisation.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-paio-0:PAI-O shall be 16 digits {value.matches('^([0-9]{16})$')}inv-paio-1:PAI-O prefix shall be 800364 {value.startsWith('800364')}inv-paio-2:PAI-O shall pass the Luhn algorithm {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
-  </si>
-  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -587,9 +567,6 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>No equivalent in HL7 v2</t>
@@ -1247,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2792,11 +2769,9 @@
         <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2808,31 +2783,35 @@
         <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="R14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2876,39 +2855,39 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2919,88 +2898,84 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="P15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3009,24 +2984,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3034,10 +3009,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>87</v>
@@ -3049,19 +3024,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3086,11 +3061,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3108,39 +3085,39 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3148,10 +3125,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>87</v>
@@ -3160,22 +3137,22 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3224,28 +3201,28 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3253,10 +3230,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3279,19 +3256,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3340,7 +3317,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3349,19 +3326,19 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3369,10 +3346,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3380,7 +3357,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -3395,19 +3372,19 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3456,7 +3433,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3465,19 +3442,19 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3485,10 +3462,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3496,34 +3473,32 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3572,28 +3547,28 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3601,10 +3576,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3615,7 +3590,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3624,18 +3599,20 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>237</v>
       </c>
@@ -3686,13 +3663,13 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
@@ -3701,13 +3678,13 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3729,7 +3706,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3741,20 +3718,16 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3802,25 +3775,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3831,21 +3804,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3857,15 +3830,17 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3914,25 +3889,25 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3943,14 +3918,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3963,24 +3938,26 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4028,7 +4005,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4046,7 +4023,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4057,45 +4034,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4120,13 +4095,11 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4144,25 +4117,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4199,17 +4172,17 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4234,11 +4207,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4271,7 +4246,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>264</v>
@@ -4299,7 +4274,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4311,17 +4286,17 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4376,7 +4351,7 @@
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4385,10 +4360,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4399,10 +4374,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4413,7 +4388,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4425,7 +4400,7 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>273</v>
@@ -4484,13 +4459,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4527,7 +4502,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4604,7 +4579,7 @@
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4613,10 +4588,10 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4625,122 +4600,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN30">
+  <autoFilter ref="A1:AN29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4750,7 +4611,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:27:21+10:00</t>
+    <t>2024-05-23T13:42:03+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:42:03+10:00</t>
+    <t>2024-05-23T14:45:45+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:45:45+10:00</t>
+    <t>2024-05-23T15:19:20+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T15:19:20+10:00</t>
+    <t>2024-05-27T13:31:05+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -702,24 +702,24 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {Address|http://hl7.org.au/fhir/StructureDefinition/au-address}
+    <t xml:space="preserve">Address {http://hl7.org.au/fhir/StructureDefinition/au-address}
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>The address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates. Postal addresses are often used as proxies for physical locations (also see the Location resource).</t>
+    <t>An address in Australia for use within an Australian healthcare context</t>
+  </si>
+  <si>
+    <t>An Australian address expressed using postal conventions (as opposed to GPS or other location definition formats).</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+inv-add-0:The address shall at least have text or a line {text.exists() or line.exists()}inv-add-1:If asserting no fixed address, the type shall be 'physical' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies type='physical'}inv-add-2:If asserting no fixed address, the address text shall begin with 'NO FIXED ADDRESS' {extension('http://hl7.org.au/fhir/StructureDefinition/no-fixed-address').exists() implies text.startsWith('NO FIXED ADDRESS')}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>XAD</t>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:31:05+10:00</t>
+    <t>2024-05-30T15:43:42+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T15:43:42+10:00</t>
+    <t>2024-10-24T17:10:08+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,7 +490,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-au-core-org-01:A National Organisation Identifier (type=NOI) shall be an HPI-O or PAI-O {where(type.coding.code = 'NOI').exists() implies (system='http://ns.electronichealth.net.au/id/hi/hpio/1.0') or (system='http://ns.electronichealth.net.au/id/pcehr/paio/1.0')}</t>
+au-core-org-01:A National Organisation Identifier (type=NOI) shall be an HPI-O or PAI-O {type.coding.where(code='NOI').exists() implies ((system='http://ns.electronichealth.net.au/id/hi/hpio/1.0') or (system='http://ns.electronichealth.net.au/id/pcehr/paio/1.0'))}</t>
   </si>
   <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
@@ -3131,7 +3131,7 @@
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-ARFOrganisation.xlsx
+++ b/StructureDefinition-ARFOrganisation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:10:08+10:00</t>
+    <t>2024-10-28T13:52:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
